--- a/player_d_dash/defense-dash-lt10_SeasonType_Playoffs_Season_2018-19.xlsx
+++ b/player_d_dash/defense-dash-lt10_SeasonType_Playoffs_Season_2018-19.xlsx
@@ -1754,7 +1754,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Jonathan Isaac</t>
+          <t>Evan Fournier</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1764,12 +1764,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1784,12 +1784,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>63.6%</t>
+          <t>47.3%</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1799,17 +1799,17 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>68.6</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>60.4</t>
+          <t>59.6</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>-17.6</t>
+          <t>9.0</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Evan Fournier</t>
+          <t>Jonathan Isaac</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1829,12 +1829,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>47.3%</t>
+          <t>63.6%</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>68.6</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>59.6</t>
+          <t>60.4</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>-17.6</t>
         </is>
       </c>
     </row>
@@ -2729,42 +2729,42 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Zach Collins</t>
+          <t>Patrick Beverley</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>61.1%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2774,17 +2774,17 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>63.9</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>57.2</t>
+          <t>62.9</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>-9.3</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -2794,42 +2794,42 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Patrick Beverley</t>
+          <t>Zach Collins</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>16</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>16</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>61.1%</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2839,17 +2839,17 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>63.9</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>62.9</t>
+          <t>57.2</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>-9.3</t>
         </is>
       </c>
     </row>
@@ -2989,7 +2989,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Pascal Siakam</t>
+          <t>Kyle Lowry</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2999,12 +2999,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3014,17 +3014,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>39.7%</t>
+          <t>42.9%</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3034,17 +3034,17 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>58.0</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>60.6</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>-2.6</t>
+          <t>-7.1</t>
         </is>
       </c>
     </row>
@@ -3054,42 +3054,42 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Kyle Lowry</t>
+          <t>Rondae Hollis-Jefferson</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>42.9%</t>
+          <t>46.9%</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3099,17 +3099,17 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>52.9</t>
+          <t>65.2</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>58.5</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>-7.1</t>
+          <t>6.7</t>
         </is>
       </c>
     </row>
@@ -3119,42 +3119,42 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Rondae Hollis-Jefferson</t>
+          <t>Pascal Siakam</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
           <t>24</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>24</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>46.9%</t>
+          <t>39.7%</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3164,17 +3164,17 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>65.2</t>
+          <t>58.0</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>58.5</t>
+          <t>60.6</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>6.7</t>
+          <t>-2.6</t>
         </is>
       </c>
     </row>
@@ -3314,42 +3314,42 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Serge Ibaka</t>
+          <t>Damian Lillard</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>16</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>47.5%</t>
+          <t>41.3%</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3359,17 +3359,17 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>63.3</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>59.0</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>-12.3</t>
+          <t>6.5</t>
         </is>
       </c>
     </row>
@@ -3379,42 +3379,42 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Damian Lillard</t>
+          <t>Serge Ibaka</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>24</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>24</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>41.3%</t>
+          <t>47.5%</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3424,17 +3424,17 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>63.3</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>59.0</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>-12.3</t>
         </is>
       </c>
     </row>
@@ -3509,42 +3509,42 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Giannis Antetokounmpo</t>
+          <t>Joe Harris</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>43.1%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3554,17 +3554,17 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>40.5</t>
+          <t>57.1</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>57.7</t>
+          <t>58.3</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>-17.2</t>
+          <t>-1.2</t>
         </is>
       </c>
     </row>
@@ -3574,42 +3574,42 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Joe Harris</t>
+          <t>Giannis Antetokounmpo</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>43.1%</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3619,17 +3619,17 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>40.5</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>58.3</t>
+          <t>57.7</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>-1.2</t>
+          <t>-17.2</t>
         </is>
       </c>
     </row>
@@ -4159,42 +4159,42 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Myles Turner</t>
+          <t>Danny Green</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>24</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>24</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>34.4%</t>
+          <t>43.2%</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -4204,17 +4204,17 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>57.1</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>58.1</t>
+          <t>59.5</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>-24.8</t>
+          <t>-2.4</t>
         </is>
       </c>
     </row>
@@ -4224,42 +4224,42 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Danny Green</t>
+          <t>Myles Turner</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>43.2%</t>
+          <t>34.4%</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -4269,17 +4269,17 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>59.5</t>
+          <t>58.1</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>-2.4</t>
+          <t>-24.8</t>
         </is>
       </c>
     </row>
@@ -4289,22 +4289,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Kevin Durant</t>
+          <t>Jimmy Butler</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -4319,12 +4319,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>45.9%</t>
+          <t>40.8%</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4334,17 +4334,17 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>59.7</t>
+          <t>56.5</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>55.6</t>
+          <t>57.7</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>-1.2</t>
         </is>
       </c>
     </row>
@@ -4354,22 +4354,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Jimmy Butler</t>
+          <t>Kevin Durant</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -4384,12 +4384,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>40.8%</t>
+          <t>45.9%</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4399,17 +4399,17 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>56.5</t>
+          <t>59.7</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>57.7</t>
+          <t>55.6</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>-1.2</t>
+          <t>4.1</t>
         </is>
       </c>
     </row>
@@ -4549,42 +4549,42 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Bryn Forbes</t>
+          <t>Jayson Tatum</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>49.3%</t>
+          <t>46.9%</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -4594,17 +4594,17 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>37.1</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>54.2</t>
+          <t>60.9</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>-17.1</t>
+          <t>5.7</t>
         </is>
       </c>
     </row>
@@ -4614,42 +4614,42 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Jayson Tatum</t>
+          <t>Bryn Forbes</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>46.9%</t>
+          <t>49.3%</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -4659,17 +4659,17 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>37.1</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>60.9</t>
+          <t>54.2</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>-17.1</t>
         </is>
       </c>
     </row>
@@ -4744,42 +4744,42 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Ricky Rubio</t>
+          <t>Rodions Kurucs</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>36.8%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -4789,17 +4789,17 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>55.2</t>
+          <t>59.4</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>-15.2</t>
+          <t>0.6</t>
         </is>
       </c>
     </row>
@@ -4809,42 +4809,42 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Rodions Kurucs</t>
+          <t>Ricky Rubio</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>36.8%</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -4854,17 +4854,17 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>59.4</t>
+          <t>55.2</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>-15.2</t>
         </is>
       </c>
     </row>
@@ -4939,7 +4939,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Wayne Ellington</t>
+          <t>Thon Maker</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -4949,12 +4949,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4969,12 +4969,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>41.3%</t>
+          <t>51.4%</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -4984,17 +4984,17 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>68.4</t>
+          <t>57.9</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>65.9</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>-8.0</t>
         </is>
       </c>
     </row>
@@ -5004,7 +5004,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Thon Maker</t>
+          <t>Wayne Ellington</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -5014,12 +5014,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5034,12 +5034,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>51.4%</t>
+          <t>41.3%</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -5049,17 +5049,17 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>57.9</t>
+          <t>68.4</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>65.9</t>
+          <t>59.3</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>-8.0</t>
+          <t>9.1</t>
         </is>
       </c>
     </row>
@@ -5459,7 +5459,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Dennis Schroder</t>
+          <t>Nerlens Noel</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -5474,7 +5474,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -5489,12 +5489,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>34.4%</t>
+          <t>51.2%</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -5504,17 +5504,17 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>54.5</t>
+          <t>68.2</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>53.9</t>
+          <t>57.8</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>10.4</t>
         </is>
       </c>
     </row>
@@ -5524,17 +5524,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>D'Angelo Russell</t>
+          <t>Dennis Schroder</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -5554,12 +5554,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>46.8%</t>
+          <t>34.4%</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -5569,17 +5569,17 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>63.6</t>
+          <t>54.5</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>53.9</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>0.6</t>
         </is>
       </c>
     </row>
@@ -5589,22 +5589,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Nerlens Noel</t>
+          <t>D'Angelo Russell</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -5619,12 +5619,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>51.2%</t>
+          <t>46.8%</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -5634,17 +5634,17 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>68.2</t>
+          <t>63.6</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>57.8</t>
+          <t>59.2</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
@@ -6109,17 +6109,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>D.J. Augustin</t>
+          <t>Donovan Mitchell</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -6139,12 +6139,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>52.6%</t>
+          <t>35.7%</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -6154,17 +6154,17 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>58.5</t>
+          <t>54.3</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>5.7</t>
         </is>
       </c>
     </row>
@@ -6174,7 +6174,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Terrence Ross</t>
+          <t>D.J. Augustin</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -6184,12 +6184,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -6204,12 +6204,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>48.8%</t>
+          <t>52.6%</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -6219,17 +6219,17 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>58.5</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>22.7</t>
+          <t>6.5</t>
         </is>
       </c>
     </row>
@@ -6239,22 +6239,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Markieff Morris</t>
+          <t>Terrence Ross</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -6269,12 +6269,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>55.6%</t>
+          <t>48.8%</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -6284,17 +6284,17 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>57.3</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>-3.8</t>
+          <t>22.7</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Donovan Mitchell</t>
+          <t>Markieff Morris</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -6399,12 +6399,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>35.7%</t>
+          <t>55.6%</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -6414,17 +6414,17 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>55.0</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>54.3</t>
+          <t>58.8</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>-3.8</t>
         </is>
       </c>
     </row>
@@ -6954,7 +6954,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Ish Smith</t>
+          <t>Luke Kennard</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -6964,7 +6964,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -6984,12 +6984,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>53.6%</t>
+          <t>51.7%</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -6999,17 +6999,17 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>61.5</t>
+          <t>62.3</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>-8.2</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
@@ -7019,7 +7019,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Luke Kennard</t>
+          <t>Ish Smith</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -7029,7 +7029,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -7049,12 +7049,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>51.7%</t>
+          <t>53.6%</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -7064,17 +7064,17 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>62.3</t>
+          <t>61.5</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>-8.2</t>
         </is>
       </c>
     </row>
@@ -7344,42 +7344,42 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>George Hill</t>
+          <t>Davis Bertans</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>32.1%</t>
+          <t>60.7%</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -7389,17 +7389,17 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>41.2</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>54.6</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>-7.6</t>
+          <t>-15.3</t>
         </is>
       </c>
     </row>
@@ -7409,42 +7409,42 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Davis Bertans</t>
+          <t>George Hill</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>60.7%</t>
+          <t>32.1%</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -7454,17 +7454,17 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>41.2</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>54.6</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>-15.3</t>
+          <t>-7.6</t>
         </is>
       </c>
     </row>
@@ -8059,42 +8059,42 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Zaza Pachulia</t>
+          <t>Domantas Sabonis</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>23.1%</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -8104,17 +8104,17 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>83.3</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>58.1</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>25.2</t>
+          <t>-25.1</t>
         </is>
       </c>
     </row>
@@ -8189,42 +8189,42 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Domantas Sabonis</t>
+          <t>Zaza Pachulia</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>23.1%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -8234,17 +8234,17 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>83.3</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>58.4</t>
+          <t>58.1</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>-25.1</t>
+          <t>25.2</t>
         </is>
       </c>
     </row>
@@ -8514,7 +8514,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Tyreke Evans</t>
+          <t>Cory Joseph</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -8524,7 +8524,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -8539,17 +8539,17 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>47.8%</t>
+          <t>35.5%</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -8559,17 +8559,17 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>54.5</t>
+          <t>63.6</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>58.2</t>
+          <t>56.3</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>-3.7</t>
+          <t>7.4</t>
         </is>
       </c>
     </row>
@@ -8579,22 +8579,22 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Bruce Brown</t>
+          <t>Wesley Matthews</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -8604,17 +8604,17 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>44.0%</t>
+          <t>28.2%</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -8624,17 +8624,17 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>54.5</t>
+          <t>36.4</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>64.6</t>
+          <t>56.9</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>-10.1</t>
+          <t>-20.5</t>
         </is>
       </c>
     </row>
@@ -8644,7 +8644,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Wesley Matthews</t>
+          <t>Tyreke Evans</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -8654,12 +8654,12 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -8669,17 +8669,17 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>28.2%</t>
+          <t>47.8%</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -8689,17 +8689,17 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>36.4</t>
+          <t>54.5</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>56.9</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>-20.5</t>
+          <t>-3.7</t>
         </is>
       </c>
     </row>
@@ -8709,17 +8709,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Cory Joseph</t>
+          <t>Bruce Brown</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -8734,17 +8734,17 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>35.5%</t>
+          <t>44.0%</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -8754,17 +8754,17 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>63.6</t>
+          <t>54.5</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>56.3</t>
+          <t>64.6</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>-10.1</t>
         </is>
       </c>
     </row>
@@ -9099,17 +9099,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Shabazz Napier</t>
+          <t>Iman Shumpert</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -9119,22 +9119,22 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>71.4%</t>
+          <t>44.4%</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -9144,17 +9144,17 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>70.0</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>58.4</t>
+          <t>62.3</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>-18.4</t>
+          <t>7.7</t>
         </is>
       </c>
     </row>
@@ -9164,17 +9164,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Marcus Smart</t>
+          <t>Shabazz Napier</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -9194,12 +9194,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>45.5%</t>
+          <t>71.4%</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -9209,17 +9209,17 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>60.5</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>19.5</t>
+          <t>-18.4</t>
         </is>
       </c>
     </row>
@@ -9229,17 +9229,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Iman Shumpert</t>
+          <t>Marcus Smart</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -9249,22 +9249,22 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>44.4%</t>
+          <t>45.5%</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -9274,17 +9274,17 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>70.0</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>62.3</t>
+          <t>60.5</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>19.5</t>
         </is>
       </c>
     </row>
@@ -9359,17 +9359,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Raymond Felton</t>
+          <t>Spencer Dinwiddie</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -9384,17 +9384,17 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>52.2%</t>
+          <t>25.5%</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -9404,17 +9404,17 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>16.7</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>53.0</t>
+          <t>57.7</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>-36.4</t>
+          <t>9.0</t>
         </is>
       </c>
     </row>
@@ -9424,17 +9424,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Spencer Dinwiddie</t>
+          <t>Raymond Felton</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -9449,17 +9449,17 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>25.5%</t>
+          <t>52.2%</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -9469,17 +9469,17 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>16.7</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>57.7</t>
+          <t>53.0</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>-36.4</t>
         </is>
       </c>
     </row>
@@ -9814,42 +9814,42 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Furkan Korkmaz</t>
+          <t>Sterling Brown</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>53.3%</t>
+          <t>41.7%</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -9859,17 +9859,17 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>57.2</t>
+          <t>53.5</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>-7.2</t>
+          <t>-18.5</t>
         </is>
       </c>
     </row>
@@ -9944,42 +9944,42 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Sterling Brown</t>
+          <t>Furkan Korkmaz</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>41.7%</t>
+          <t>53.3%</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -9989,17 +9989,17 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>53.5</t>
+          <t>57.2</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>-18.5</t>
+          <t>-7.2</t>
         </is>
       </c>
     </row>
@@ -10399,42 +10399,42 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>JaMychal Green</t>
+          <t>Glenn Robinson III</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>21.3%</t>
+          <t>45.5%</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -10444,17 +10444,17 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>70.0</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>64.9</t>
+          <t>60.5</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>19.5</t>
         </is>
       </c>
     </row>
@@ -10464,42 +10464,42 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Glenn Robinson III</t>
+          <t>JaMychal Green</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>45.5%</t>
+          <t>21.3%</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -10509,17 +10509,17 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>70.0</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>60.5</t>
+          <t>64.9</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>19.5</t>
+          <t>5.1</t>
         </is>
       </c>
     </row>
@@ -10594,42 +10594,42 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Jake Layman</t>
+          <t>Quinn Cook</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>36.8%</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -10639,17 +10639,17 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>47.6</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>54.0</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>-3.7</t>
+          <t>-6.4</t>
         </is>
       </c>
     </row>
@@ -10724,42 +10724,42 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Robert Williams III</t>
+          <t>Wilson Chandler</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -10769,17 +10769,17 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>62.6</t>
+          <t>63.4</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>-29.3</t>
+          <t>3.2</t>
         </is>
       </c>
     </row>
@@ -10789,22 +10789,22 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Anfernee Simons</t>
+          <t>Robert Williams III</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -10814,17 +10814,17 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -10834,17 +10834,17 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>62.6</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>-48.1</t>
+          <t>-29.3</t>
         </is>
       </c>
     </row>
@@ -10919,42 +10919,42 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Aaron Holiday</t>
+          <t>Jake Layman</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>75.0%</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -10964,17 +10964,17 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>60.1</t>
+          <t>53.7</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>-26.7</t>
+          <t>-3.7</t>
         </is>
       </c>
     </row>
@@ -10984,17 +10984,17 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Quinn Cook</t>
+          <t>Anfernee Simons</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -11004,22 +11004,22 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>36.8%</t>
+          <t>75.0%</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -11029,17 +11029,17 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>47.6</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>54.0</t>
+          <t>48.1</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>-6.4</t>
+          <t>-48.1</t>
         </is>
       </c>
     </row>
@@ -11049,42 +11049,42 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Wilson Chandler</t>
+          <t>Aaron Holiday</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>20.7%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -11094,17 +11094,17 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>63.4</t>
+          <t>60.1</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>-26.7</t>
         </is>
       </c>
     </row>
@@ -11179,17 +11179,17 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Kyle Korver</t>
+          <t>Theo Pinson</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -11204,17 +11204,17 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>28.6%</t>
+          <t>44.4%</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -11224,17 +11224,17 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>58.1</t>
+          <t>50.9</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>-33.1</t>
+          <t>24.1</t>
         </is>
       </c>
     </row>
@@ -11244,17 +11244,17 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Theo Pinson</t>
+          <t>Kyle Korver</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -11269,17 +11269,17 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>44.4%</t>
+          <t>28.6%</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -11289,17 +11289,17 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>58.1</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>24.1</t>
+          <t>-33.1</t>
         </is>
       </c>
     </row>
@@ -11374,17 +11374,17 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Doug McDermott</t>
+          <t>Guerschon Yabusele</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -11404,12 +11404,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -11419,17 +11419,17 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>58.5</t>
+          <t>57.5</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>-8.5</t>
+          <t>17.5</t>
         </is>
       </c>
     </row>
@@ -11439,17 +11439,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Guerschon Yabusele</t>
+          <t>Doug McDermott</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -11469,12 +11469,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -11484,17 +11484,17 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>57.5</t>
+          <t>58.5</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>17.5</t>
+          <t>-8.5</t>
         </is>
       </c>
     </row>
@@ -11894,42 +11894,42 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Donatas Motiejunas</t>
+          <t>D.J. Wilson</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>41.7%</t>
+          <t>31.8%</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -11939,17 +11939,17 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>71.4</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>58.1</t>
+          <t>56.3</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>21.9</t>
+          <t>15.1</t>
         </is>
       </c>
     </row>
@@ -11959,42 +11959,42 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>D.J. Wilson</t>
+          <t>Isaiah Hartenstein</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>31.8%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -12004,17 +12004,17 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>71.4</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>56.3</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>15.1</t>
+          <t>50.9</t>
         </is>
       </c>
     </row>
@@ -12024,22 +12024,22 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Isaiah Hartenstein</t>
+          <t>Jon Leuer</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -12054,7 +12054,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -12074,12 +12074,12 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>62.6</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>37.4</t>
         </is>
       </c>
     </row>
@@ -12089,62 +12089,62 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Jon Leuer</t>
+          <t>Donatas Motiejunas</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>41.7%</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>62.6</t>
+          <t>58.1</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>37.4</t>
+          <t>21.9</t>
         </is>
       </c>
     </row>
@@ -12219,22 +12219,22 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Dzanan Musa</t>
+          <t>Skal Labissiere</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -12244,17 +12244,17 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -12264,17 +12264,17 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>54.0</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>-45.7</t>
         </is>
       </c>
     </row>
@@ -12284,62 +12284,62 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Gary Clark</t>
+          <t>Dzanan Musa</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>58.0</t>
+          <t>54.0</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>-4.0</t>
         </is>
       </c>
     </row>
@@ -12349,17 +12349,17 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Malcolm Miller</t>
+          <t>Gary Clark</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -12369,12 +12369,12 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -12384,7 +12384,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -12394,17 +12394,17 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>58.0</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>42.0</t>
         </is>
       </c>
     </row>
@@ -12414,17 +12414,17 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Skal Labissiere</t>
+          <t>Malcolm Miller</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -12434,12 +12434,12 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -12449,7 +12449,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -12459,17 +12459,17 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>55.0</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>-45.7</t>
+          <t>-5.0</t>
         </is>
       </c>
     </row>
@@ -12999,22 +12999,22 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Dante Cunningham</t>
+          <t>Sindarius Thornwell</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -13049,12 +13049,12 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>59.5</t>
+          <t>61.5</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>40.5</t>
+          <t>38.5</t>
         </is>
       </c>
     </row>
@@ -13064,22 +13064,22 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Damian Jones</t>
+          <t>Jarred Vanderbilt</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -13094,7 +13094,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -13114,12 +13114,12 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>54.8</t>
+          <t>54.2</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>-54.8</t>
+          <t>-54.2</t>
         </is>
       </c>
     </row>
@@ -13129,22 +13129,22 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Sindarius Thornwell</t>
+          <t>Dante Cunningham</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -13179,12 +13179,12 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>61.5</t>
+          <t>59.5</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>38.5</t>
+          <t>40.5</t>
         </is>
       </c>
     </row>
@@ -13194,7 +13194,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Jarred Vanderbilt</t>
+          <t>Trey Lyles</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -13204,7 +13204,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -13224,12 +13224,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -13239,17 +13239,17 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>54.2</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>-54.2</t>
+          <t>35.0</t>
         </is>
       </c>
     </row>
@@ -13259,22 +13259,22 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Trey Lyles</t>
+          <t>Damian Jones</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -13294,27 +13294,27 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="J199" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>54.8</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>-54.8</t>
         </is>
       </c>
     </row>
@@ -13389,17 +13389,17 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Raul Neto</t>
+          <t>Lonnie Walker IV</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -13439,12 +13439,12 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>53.4</t>
         </is>
       </c>
     </row>
@@ -13519,22 +13519,22 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Lonnie Walker IV</t>
+          <t>Jarell Martin</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -13549,7 +13549,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>16.7%</t>
+          <t>12.5%</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -13569,12 +13569,12 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>59.8</t>
         </is>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>53.4</t>
+          <t>40.2</t>
         </is>
       </c>
     </row>
@@ -13584,22 +13584,22 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Jarell Martin</t>
+          <t>Raul Neto</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -13614,7 +13614,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>16.7%</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -13634,12 +13634,12 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>59.8</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>40.2</t>
+          <t>46.7</t>
         </is>
       </c>
     </row>
